--- a/DATA_goal/Junction_Flooding_371.xlsx
+++ b/DATA_goal/Junction_Flooding_371.xlsx
@@ -447,7 +447,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -655,103 +655,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.57</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_371.xlsx
+++ b/DATA_goal/Junction_Flooding_371.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.79861111111</v>
+        <v>45052.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
+        <v>4.642</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>8.505000000000001</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>6.25</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.84</v>
-      </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.80555555555</v>
+        <v>45052.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.61</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.6</v>
+        <v>6.806</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.081</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>19.166</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>15.796</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6.994</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>25.227</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>11.061</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>5.174</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.886</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>8.32</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>3.32</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>3.72</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.06</v>
+        <v>2.294</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.01</v>
+        <v>6.803</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.93</v>
+        <v>9.973000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.05</v>
+        <v>5.958</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.186</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.414</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.48</v>
+        <v>101.101</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.57</v>
+        <v>19.925</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>6.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.22</v>
+        <v>12.892</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.07</v>
+        <v>7.69</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.24</v>
+        <v>12.814</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.41</v>
+        <v>5.871</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.69</v>
+        <v>6.955</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.67</v>
+        <v>8.754</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.99</v>
+        <v>22.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.31</v>
+        <v>4.173</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.47</v>
+        <v>7.863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.8125</v>
+        <v>45052.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.15</v>
+        <v>17.718</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.05</v>
+        <v>13.637</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>39.259</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.09</v>
+        <v>32.363</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.82</v>
+        <v>14.218</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.27</v>
+        <v>53.039</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.14</v>
+        <v>22.152</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.4</v>
+        <v>10.101</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.81</v>
+        <v>15.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.76</v>
+        <v>16.207</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.13</v>
+        <v>16.769</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.13</v>
+        <v>4.588</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.38</v>
+        <v>14.016</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.53</v>
+        <v>20.302</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.2</v>
+        <v>11.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.641</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.16</v>
+        <v>209.93</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>39.896</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.12</v>
+        <v>13.056</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.97</v>
+        <v>26.619</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.38</v>
+        <v>14.609</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.47</v>
+        <v>1.873</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.04</v>
+        <v>26.368</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.76</v>
+        <v>11.612</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.6</v>
+        <v>10.761</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.98</v>
+        <v>12.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.05</v>
+        <v>17.042</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.08</v>
+        <v>48.109</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.59</v>
+        <v>7.778</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.9</v>
+        <v>16.245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>45052.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.51</v>
+        <v>24.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.35</v>
+        <v>18.33</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.42</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>95.65000000000001</v>
+        <v>284.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.83</v>
+        <v>53.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>17.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.43</v>
+        <v>36.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.73</v>
+        <v>19.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.91</v>
+        <v>2.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.49</v>
+        <v>36.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>15.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.98</v>
+        <v>14.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.81</v>
+        <v>16.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.99</v>
+        <v>22.72</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.9</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.41</v>
+        <v>10.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.73</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
+        <v>21.95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_371.xlsx
+++ b/DATA_goal/Junction_Flooding_371.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45052.50694444445</v>
+        <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45052.51388888889</v>
+        <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>3.607</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.806</v>
+        <v>2.605</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.081</v>
+        <v>1.194</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.166</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.796</v>
+        <v>5.865</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.994</v>
+        <v>2.188</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.227</v>
+        <v>12.845</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.061</v>
+        <v>4.544</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.174</v>
+        <v>2.113</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.886</v>
+        <v>2.121</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.32</v>
+        <v>3.322</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.337999999999999</v>
+        <v>3.724</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.294</v>
+        <v>1.059</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.803</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.973000000000001</v>
+        <v>3.931</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.958</v>
+        <v>3.052</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.186</v>
+        <v>0.455</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.414</v>
+        <v>0.438</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.101</v>
+        <v>38.479</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.925</v>
+        <v>8.567</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.43</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.892</v>
+        <v>5.216</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.69</v>
+        <v>3.068</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.456</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.814</v>
+        <v>7.241</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.75</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.871</v>
+        <v>2.411</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.955</v>
+        <v>2.685</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.754</v>
+        <v>3.671</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.419</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.81</v>
+        <v>11.989</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.173</v>
+        <v>1.312</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.863</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45052.52083333334</v>
+        <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.718</v>
+        <v>4.149</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.637</v>
+        <v>3.053</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.437</v>
+        <v>0.834</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.259</v>
+        <v>9.394</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.363</v>
+        <v>7.091</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.218</v>
+        <v>2.819</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.039</v>
+        <v>13.267</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.152</v>
+        <v>5.142</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.101</v>
+        <v>2.399</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.187</v>
+        <v>2.807</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.207</v>
+        <v>3.761</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.769</v>
+        <v>4.133</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.588</v>
+        <v>1.127</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.016</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.302</v>
+        <v>4.531</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.856</v>
+        <v>3.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.297</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.641</v>
+        <v>0.347</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>209.93</v>
+        <v>44.156</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.896</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.056</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.619</v>
+        <v>5.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.609</v>
+        <v>3.383</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.873</v>
+        <v>0.474</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.368</v>
+        <v>7.036</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.612</v>
+        <v>2.759</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.761</v>
+        <v>2.602</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.66</v>
+        <v>2.982</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.042</v>
+        <v>4.048</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.281</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.109</v>
+        <v>12.079</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.778</v>
+        <v>1.589</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.245</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45052.52777777778</v>
+        <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.08</v>
+        <v>8.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.33</v>
+        <v>6.347</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.96</v>
+        <v>18.807</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.69</v>
+        <v>15.044</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.16</v>
+        <v>6.356</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.08</v>
+        <v>24.311</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.72</v>
+        <v>10.389</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.48</v>
+        <v>4.764</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>20.19</v>
+        <v>6.478</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.61</v>
+        <v>7.542</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.54</v>
+        <v>8.103</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>2.195</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.95</v>
+        <v>6.767</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.35</v>
+        <v>9.417999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.9</v>
+        <v>5.912</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.261</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.39</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.62</v>
+        <v>18.829</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.59</v>
+        <v>6.247</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.02</v>
+        <v>12.425</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.38</v>
+        <v>6.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.51</v>
+        <v>0.905</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.31</v>
+        <v>12.495</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.61</v>
+        <v>5.517</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>14.14</v>
+        <v>4.981</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.62</v>
+        <v>5.811</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.72</v>
+        <v>7.987</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.472</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>21.903</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.28</v>
+        <v>3.414</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.95</v>
+        <v>7.809</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>135.73</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_371.xlsx
+++ b/DATA_goal/Junction_Flooding_371.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.79861111111</v>
+        <v>45052.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.971</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.342</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.281</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.251</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.378</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.239</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.412</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.207000000000001</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.471</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.767</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.829000000000001</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.124</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.871</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.593</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.541</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.247</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.315</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.838</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.072</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.924</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.517</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.296</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.767</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.035</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.721</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.104</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.808</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.80555555555</v>
+        <v>45052.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.607</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.605</v>
+        <v>6.806</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.194</v>
+        <v>0.081</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.321999999999999</v>
+        <v>19.166</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.865</v>
+        <v>15.796</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.188</v>
+        <v>6.994</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.845</v>
+        <v>25.227</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.544</v>
+        <v>11.061</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.113</v>
+        <v>5.174</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.121</v>
+        <v>7.886</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.322</v>
+        <v>8.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.724</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.059</v>
+        <v>2.294</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.008</v>
+        <v>6.803</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.931</v>
+        <v>9.973000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.052</v>
+        <v>5.958</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.455</v>
+        <v>0.186</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.438</v>
+        <v>0.414</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.479</v>
+        <v>101.101</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.567</v>
+        <v>19.925</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.776</v>
+        <v>6.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.216</v>
+        <v>12.892</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.068</v>
+        <v>7.69</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.456</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.241</v>
+        <v>12.814</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.452</v>
+        <v>5.75</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.411</v>
+        <v>5.871</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.685</v>
+        <v>6.955</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.671</v>
+        <v>8.754</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.945</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.989</v>
+        <v>22.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.312</v>
+        <v>4.173</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.473</v>
+        <v>7.863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.8125</v>
+        <v>45052.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.149</v>
+        <v>17.718</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.053</v>
+        <v>13.637</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.834</v>
+        <v>0.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.394</v>
+        <v>39.259</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.091</v>
+        <v>32.363</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.819</v>
+        <v>14.218</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.267</v>
+        <v>53.039</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.142</v>
+        <v>22.152</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.399</v>
+        <v>10.101</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.807</v>
+        <v>15.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.761</v>
+        <v>16.207</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.133</v>
+        <v>16.769</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.127</v>
+        <v>4.588</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.384</v>
+        <v>14.016</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.531</v>
+        <v>20.302</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.2</v>
+        <v>11.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.297</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.347</v>
+        <v>0.641</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.156</v>
+        <v>209.93</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.454000000000001</v>
+        <v>39.896</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.123</v>
+        <v>13.056</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.97</v>
+        <v>26.619</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.383</v>
+        <v>14.609</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.474</v>
+        <v>1.873</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.036</v>
+        <v>26.368</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.759</v>
+        <v>11.612</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.602</v>
+        <v>10.761</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.982</v>
+        <v>12.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.048</v>
+        <v>17.042</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.627</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.079</v>
+        <v>48.109</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.589</v>
+        <v>7.778</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.905</v>
+        <v>16.245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>45052.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.51</v>
+        <v>24.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.347</v>
+        <v>18.33</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>18.807</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>15.044</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>6.356</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>24.311</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>10.389</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4.764</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>6.478</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>7.542</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>8.103</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.195</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>6.767</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>9.417999999999999</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.42</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>95.65000000000001</v>
+        <v>284.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.829</v>
+        <v>53.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.247</v>
+        <v>17.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.425</v>
+        <v>36.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.73</v>
+        <v>19.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.905</v>
+        <v>2.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.495</v>
+        <v>36.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.517</v>
+        <v>15.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.981</v>
+        <v>14.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.811</v>
+        <v>16.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.987</v>
+        <v>22.72</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.903</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.414</v>
+        <v>10.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.809</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.73</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
+        <v>21.95</v>
       </c>
     </row>
   </sheetData>
